--- a/resources/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol (2).xlsx
+++ b/resources/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol (2).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -153,12 +153,15 @@
   <si>
     <t>Edward Slavov</t>
   </si>
+  <si>
+    <t>https://github.com/eslavov11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +198,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -291,10 +302,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -354,8 +366,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -670,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +751,9 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
@@ -1038,7 +1056,10 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="C7:E7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol (2).xlsx
+++ b/resources/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol (2).xlsx
@@ -154,7 +154,7 @@
     <t>Edward Slavov</t>
   </si>
   <si>
-    <t>https://github.com/eslavov11</t>
+    <t>https://github.com/eslavov11/Issue-Tracking-System</t>
   </si>
 </sst>
 </file>
@@ -363,10 +363,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -751,18 +751,18 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>16</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>16</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>
